--- a/Data_Raw/land/tenant_contract.xlsx
+++ b/Data_Raw/land/tenant_contract.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boblin\Documents\GitHub\Taiwan_Land\Data_Raw\land\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BobLin\GitHub\Taiwan_Land\Data_Raw\land\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAEAAF1-8FAA-45C1-978A-EDF5E6667521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62D1802-10F3-422E-B2F8-98327BF535B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="16874" windowHeight="10972" xr2:uid="{7F4CED5D-ECD5-4A0F-99B7-3D7E020F3FAD}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="2" xr2:uid="{7F4CED5D-ECD5-4A0F-99B7-3D7E020F3FAD}"/>
   </bookViews>
   <sheets>
     <sheet name="1952" sheetId="1" r:id="rId1"/>
     <sheet name="1953" sheetId="2" r:id="rId2"/>
     <sheet name="1956" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="tenant_area" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="35">
   <si>
     <t>Total</t>
   </si>
@@ -131,6 +133,18 @@
   <si>
     <t>region</t>
   </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Total Tenant Area (hectare)</t>
+  </si>
+  <si>
+    <t>Tenant Area Change in from 1952 to 1953</t>
+  </si>
+  <si>
+    <t>tenant_number_contract</t>
+  </si>
 </sst>
 </file>
 
@@ -191,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -200,6 +214,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -216,6 +231,1850 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tenant_area!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Total Tenant Area (hectare) </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>tenant_area!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1956</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tenant_area!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>255358.33530000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254259.13380000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249218.61129999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108756.9209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102114.66959999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93657.601500000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92852.457299999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE40-499C-AEE4-88AA263D96BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="939551904"/>
+        <c:axId val="939558560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="939551904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="939558560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="939558560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="939551904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tenant_area!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tenant Area Change in from 1952 to 1953</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>tenant_area!$A$12:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v> Taipei_prefecture </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> Yilan_prefecture </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> Taoyuan_prefecture </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> Sinchu_prefecture </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> Miaoli_prefecture </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> Taichung_prefecture </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> Changhwa_prefecture </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> Nantou_prefecture </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> Yunlin_prefecture </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> Chiayi_prefecture </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> Tainan_prefecture </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> Kaohsiung_prefecture </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> Pengtung_prefecture </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> Taitung_prefecture </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> Hwalien_prefecture </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> Penghu_prefecture </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> Taipei_city </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> Keelung_city </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> Taichung_city </c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> Tainan_city </c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> Kaohsiung_city </c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> Yangmingshan </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tenant_area!$B$12:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>11658.924300000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6945.4231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21574.605910000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12879.896799999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9096.9845000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12641.609699999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9558.8220999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4258.7987000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10626.791300000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8662.504600000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12542.634500000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5293.6833999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9145.6076999999987</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>615.26589999999987</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1066.7905000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1068.4579000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-101.08999999999992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>160.52379999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2595.3026</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>167.44120000000009</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>964.88409999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1174.7435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CD9-4633-91F2-5EFF88D9BE58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="945697328"/>
+        <c:axId val="945692336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="945697328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="945692336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="945692336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="945697328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5197A1-220F-4A58-B0FF-166D611A876D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD8F9AF-4279-4A81-A9F5-58579973A7BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,28 +2376,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04A3B83-865F-43D3-90D7-C73B3039BEC9}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.41796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.05078125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.41796875" style="3" customWidth="1"/>
     <col min="4" max="4" width="16" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.9296875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="14.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.9453125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.05078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>24</v>
@@ -559,7 +2420,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -585,7 +2446,7 @@
         <v>21.208600000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -611,7 +2472,7 @@
         <v>17.582699999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -637,7 +2498,7 @@
         <v>834.96220000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -663,7 +2524,7 @@
         <v>178.91300000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -689,7 +2550,7 @@
         <v>41.360799999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -715,7 +2576,7 @@
         <v>71.468699999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -741,7 +2602,7 @@
         <v>17.357700000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -767,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -793,7 +2654,7 @@
         <v>87.962599999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -819,7 +2680,7 @@
         <v>33.634500000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -845,7 +2706,7 @@
         <v>26.643999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -871,7 +2732,7 @@
         <v>34.106200000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -897,7 +2758,7 @@
         <v>9.3359000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -923,7 +2784,7 @@
         <v>2.2132999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -949,7 +2810,7 @@
         <v>2.9710999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -975,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1001,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1027,7 +2888,7 @@
         <v>17.535</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1053,7 +2914,7 @@
         <v>10.8451</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1079,7 +2940,7 @@
         <v>133.63829999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1105,7 +2966,7 @@
         <v>15.910399999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1131,7 +2992,7 @@
         <v>8.3370999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +3018,7 @@
         <v>1565.9875</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" s="6"/>
     </row>
   </sheetData>
@@ -1169,28 +3030,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD91D136-54E6-40BE-95C5-2EF762A396E5}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.41796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.05078125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.41796875" style="3" customWidth="1"/>
     <col min="4" max="4" width="16" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.9296875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="14.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.9453125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.05078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>24</v>
@@ -1211,7 +3074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1237,7 +3100,7 @@
         <v>40.123800000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1263,7 +3126,7 @@
         <v>12.765599999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1289,7 +3152,7 @@
         <v>411.98570000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +3178,7 @@
         <v>199.49719999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1341,7 +3204,7 @@
         <v>6.1161000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +3230,7 @@
         <v>24.657699999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1393,7 +3256,7 @@
         <v>2.8809999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1445,7 +3308,7 @@
         <v>76.807199999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1471,7 +3334,7 @@
         <v>34.183999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1497,7 +3360,7 @@
         <v>12.4078</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1523,7 +3386,7 @@
         <v>20.8904</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,7 +3412,7 @@
         <v>43.510899999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1575,7 +3438,7 @@
         <v>0.42080000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1601,7 +3464,7 @@
         <v>1.6352</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1627,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1653,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1679,7 +3542,7 @@
         <v>17.390999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1705,7 +3568,7 @@
         <v>2.3672</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1731,7 +3594,7 @@
         <v>131.2723</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1757,7 +3620,7 @@
         <v>19.572099999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1783,7 +3646,7 @@
         <v>5.4809999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +3672,7 @@
         <v>1063.9666999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" s="6"/>
     </row>
   </sheetData>
@@ -1822,28 +3685,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B942B87-9414-4E6D-8946-A07589B2B988}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.41796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.05078125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.41796875" style="3" customWidth="1"/>
     <col min="4" max="4" width="16" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.41796875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.9296875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="1"/>
+    <col min="7" max="7" width="14.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.9453125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.05078125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>24</v>
@@ -1864,7 +3729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1890,7 +3755,7 @@
         <v>24.295500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1916,7 +3781,7 @@
         <v>21.039000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1942,7 +3807,7 @@
         <v>631.27430000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1968,7 +3833,7 @@
         <v>219.5455</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1994,7 +3859,7 @@
         <v>14.483499999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2020,7 +3885,7 @@
         <v>36.548900000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2046,7 +3911,7 @@
         <v>6.6589</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2072,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2098,7 +3963,7 @@
         <v>89.377099999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2124,7 +3989,7 @@
         <v>16.4011</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2150,7 +4015,7 @@
         <v>13.7545</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2176,7 +4041,7 @@
         <v>14.0815</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2202,7 +4067,7 @@
         <v>39.984000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2228,7 +4093,7 @@
         <v>0.72660000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2254,7 +4119,7 @@
         <v>0.52429999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2280,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2306,7 +4171,7 @@
         <v>1.9128000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2332,7 +4197,7 @@
         <v>17.3794</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2358,7 +4223,7 @@
         <v>5.0031999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2384,7 +4249,7 @@
         <v>128.05459999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2410,7 +4275,7 @@
         <v>21.946200000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2436,7 +4301,7 @@
         <v>6.7492000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2462,10 +4327,855 @@
         <v>1309.7401</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A8A46C-44A7-428E-9DF1-4CDF534A20B8}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>1956</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A078D31-6128-4767-8FEC-D5B123F8B3E4}">
+  <dimension ref="A1:X33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="14.3125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1950</v>
+      </c>
+      <c r="B2" s="3">
+        <v>255358.33530000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>1951</v>
+      </c>
+      <c r="B3" s="3">
+        <v>254259.13380000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>1952</v>
+      </c>
+      <c r="B4" s="3">
+        <v>249218.61129999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>19191.436600000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>13105.6777</v>
+      </c>
+      <c r="E4" s="3">
+        <v>31506.150010000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>19650.140599999999</v>
+      </c>
+      <c r="G4" s="3">
+        <v>13155.1564</v>
+      </c>
+      <c r="H4" s="3">
+        <v>19554.985499999999</v>
+      </c>
+      <c r="I4" s="3">
+        <v>19558.2726</v>
+      </c>
+      <c r="J4" s="3">
+        <v>7765.0352000000003</v>
+      </c>
+      <c r="K4" s="3">
+        <v>16536.494200000001</v>
+      </c>
+      <c r="L4" s="3">
+        <v>18447.174200000001</v>
+      </c>
+      <c r="M4" s="3">
+        <v>26378.063300000002</v>
+      </c>
+      <c r="N4" s="3">
+        <v>10327.0131</v>
+      </c>
+      <c r="O4" s="3">
+        <v>17524.334299999999</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1830.6315999999999</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>2896.4713000000002</v>
+      </c>
+      <c r="R4" s="3">
+        <v>380.71949999999998</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1241.5707</v>
+      </c>
+      <c r="T4" s="3">
+        <v>408.46129999999999</v>
+      </c>
+      <c r="U4" s="3">
+        <v>4656.6374999999998</v>
+      </c>
+      <c r="V4" s="3">
+        <v>839.83630000000005</v>
+      </c>
+      <c r="W4" s="3">
+        <v>2335.5825</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1928.7668000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>1953</v>
+      </c>
+      <c r="B5" s="3">
+        <v>108756.9209</v>
+      </c>
+      <c r="C5" s="3">
+        <v>7532.5123000000003</v>
+      </c>
+      <c r="D5" s="3">
+        <v>6160.2546000000002</v>
+      </c>
+      <c r="E5" s="3">
+        <v>9931.5440999999992</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6770.2438000000002</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4058.1718999999998</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6913.3757999999998</v>
+      </c>
+      <c r="I5" s="3">
+        <v>9999.4505000000008</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3506.2365</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5909.7029000000002</v>
+      </c>
+      <c r="L5" s="3">
+        <v>9784.6695999999993</v>
+      </c>
+      <c r="M5" s="3">
+        <v>13835.4288</v>
+      </c>
+      <c r="N5" s="3">
+        <v>5033.3297000000002</v>
+      </c>
+      <c r="O5" s="3">
+        <v>8378.7266</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1215.3657000000001</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1829.6808000000001</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1449.1774</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1342.6606999999999</v>
+      </c>
+      <c r="T5" s="3">
+        <v>247.9375</v>
+      </c>
+      <c r="U5" s="3">
+        <v>2061.3348999999998</v>
+      </c>
+      <c r="V5" s="3">
+        <v>672.39509999999996</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1370.6984</v>
+      </c>
+      <c r="X5" s="3">
+        <v>754.02329999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>1954</v>
+      </c>
+      <c r="B6" s="3">
+        <v>102114.66959999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>1955</v>
+      </c>
+      <c r="B7" s="3">
+        <v>93657.601500000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>1956</v>
+      </c>
+      <c r="B8" s="3">
+        <v>92852.457299999995</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6566.9431999999997</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5664.3265000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9648.4595000000008</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5785.8743999999997</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3750.0373</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5709.5016999999998</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7204.1329999999998</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2810.5628999999999</v>
+      </c>
+      <c r="K8" s="3">
+        <v>4890.6772000000001</v>
+      </c>
+      <c r="L8" s="3">
+        <v>8028.4569000000001</v>
+      </c>
+      <c r="M8" s="3">
+        <v>12272.258599999999</v>
+      </c>
+      <c r="N8" s="3">
+        <v>4192.0132999999996</v>
+      </c>
+      <c r="O8" s="3">
+        <v>7090.3326999999999</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1094.1061</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1568.6866</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1371.1668999999999</v>
+      </c>
+      <c r="S8" s="3">
+        <v>923.85389999999995</v>
+      </c>
+      <c r="T8" s="3">
+        <v>215.71459999999999</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1478.2456999999999</v>
+      </c>
+      <c r="V8" s="3">
+        <v>671.44320000000005</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1241.0101</v>
+      </c>
+      <c r="X8" s="3">
+        <v>674.65300000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8">
+        <f>D12-E12</f>
+        <v>11658.924300000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>19191.436600000001</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7532.5123000000003</v>
+      </c>
+      <c r="F12">
+        <f>B12/D12</f>
+        <v>0.60750659489451664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" ref="B13:B33" si="0">D13-E13</f>
+        <v>6945.4231</v>
+      </c>
+      <c r="D13" s="3">
+        <v>13105.6777</v>
+      </c>
+      <c r="E13" s="3">
+        <v>6160.2546000000002</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F33" si="1">B13/D13</f>
+        <v>0.52995528037439832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="0"/>
+        <v>21574.605910000002</v>
+      </c>
+      <c r="D14" s="3">
+        <v>31506.150010000001</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9931.5440999999992</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.68477442985424297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="0"/>
+        <v>12879.896799999999</v>
+      </c>
+      <c r="D15" s="3">
+        <v>19650.140599999999</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6770.2438000000002</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.65546079604132701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="0"/>
+        <v>9096.9845000000005</v>
+      </c>
+      <c r="D16" s="3">
+        <v>13155.1564</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4058.1718999999998</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.69151473562108323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="0"/>
+        <v>12641.609699999999</v>
+      </c>
+      <c r="D17" s="3">
+        <v>19554.985499999999</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6913.3757999999998</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.64646479538427681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" si="0"/>
+        <v>9558.8220999999994</v>
+      </c>
+      <c r="D18" s="3">
+        <v>19558.2726</v>
+      </c>
+      <c r="E18" s="3">
+        <v>9999.4505000000008</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.48873549804188737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" si="0"/>
+        <v>4258.7987000000003</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7765.0352000000003</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3506.2365</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.54845838947388159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="0"/>
+        <v>10626.791300000001</v>
+      </c>
+      <c r="D20" s="3">
+        <v>16536.494200000001</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5909.7029000000002</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.64262661550112599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="0"/>
+        <v>8662.504600000002</v>
+      </c>
+      <c r="D21" s="3">
+        <v>18447.174200000001</v>
+      </c>
+      <c r="E21" s="3">
+        <v>9784.6695999999993</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.46958436593502767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="0"/>
+        <v>12542.634500000002</v>
+      </c>
+      <c r="D22" s="3">
+        <v>26378.063300000002</v>
+      </c>
+      <c r="E22" s="3">
+        <v>13835.4288</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.47549489730733951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" si="0"/>
+        <v>5293.6833999999999</v>
+      </c>
+      <c r="D23" s="3">
+        <v>10327.0131</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5033.3297000000002</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.51260546962993592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8">
+        <f t="shared" si="0"/>
+        <v>9145.6076999999987</v>
+      </c>
+      <c r="D24" s="3">
+        <v>17524.334299999999</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8378.7266</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0.52188046309981651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" si="0"/>
+        <v>615.26589999999987</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1830.6315999999999</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1215.3657000000001</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.33609487567023311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8">
+        <f t="shared" si="0"/>
+        <v>1066.7905000000001</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2896.4713000000002</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1829.6808000000001</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0.36830694645584783</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="8">
+        <f t="shared" si="0"/>
+        <v>-1068.4579000000001</v>
+      </c>
+      <c r="D27" s="3">
+        <v>380.71949999999998</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1449.1774</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>-2.8064175856503284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8">
+        <f t="shared" si="0"/>
+        <v>-101.08999999999992</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1241.5707</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1342.6606999999999</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>-8.1421058019490886E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" si="0"/>
+        <v>160.52379999999999</v>
+      </c>
+      <c r="D29" s="3">
+        <v>408.46129999999999</v>
+      </c>
+      <c r="E29" s="3">
+        <v>247.9375</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0.39299634996020427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" si="0"/>
+        <v>2595.3026</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4656.6374999999998</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2061.3348999999998</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0.55733404199918934</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="8">
+        <f t="shared" si="0"/>
+        <v>167.44120000000009</v>
+      </c>
+      <c r="D31" s="3">
+        <v>839.83630000000005</v>
+      </c>
+      <c r="E31" s="3">
+        <v>672.39509999999996</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0.19937361602493259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="8">
+        <f t="shared" si="0"/>
+        <v>964.88409999999999</v>
+      </c>
+      <c r="D32" s="3">
+        <v>2335.5825</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1370.6984</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0.41312353556339798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="8">
+        <f t="shared" si="0"/>
+        <v>1174.7435</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1928.7668000000001</v>
+      </c>
+      <c r="E33" s="3">
+        <v>754.02329999999995</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.60906455876366183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>